--- a/www/IndicatorsPerCountry/UnitedArabEmirates_GDPperCapita_TerritorialRef_1971_2012_CCode_784.xlsx
+++ b/www/IndicatorsPerCountry/UnitedArabEmirates_GDPperCapita_TerritorialRef_1971_2012_CCode_784.xlsx
@@ -243,13 +243,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/UnitedArabEmirates_GDPperCapita_TerritorialRef_1971_2012_CCode_784.xlsx
+++ b/www/IndicatorsPerCountry/UnitedArabEmirates_GDPperCapita_TerritorialRef_1971_2012_CCode_784.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="84">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,184 +36,199 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>15798</t>
-  </si>
-  <si>
-    <t>16709</t>
-  </si>
-  <si>
-    <t>17246</t>
-  </si>
-  <si>
-    <t>18418</t>
-  </si>
-  <si>
-    <t>19884</t>
-  </si>
-  <si>
-    <t>19683</t>
-  </si>
-  <si>
-    <t>20377</t>
-  </si>
-  <si>
-    <t>20282</t>
-  </si>
-  <si>
-    <t>20372</t>
-  </si>
-  <si>
-    <t>21426</t>
-  </si>
-  <si>
-    <t>22433</t>
-  </si>
-  <si>
-    <t>23180</t>
-  </si>
-  <si>
-    <t>24250</t>
-  </si>
-  <si>
-    <t>25025</t>
-  </si>
-  <si>
-    <t>25676</t>
-  </si>
-  <si>
-    <t>26164</t>
-  </si>
-  <si>
-    <t>26483</t>
-  </si>
-  <si>
-    <t>26610</t>
-  </si>
-  <si>
-    <t>26374</t>
-  </si>
-  <si>
-    <t>25495</t>
-  </si>
-  <si>
-    <t>24552</t>
-  </si>
-  <si>
-    <t>24806</t>
-  </si>
-  <si>
-    <t>24887</t>
-  </si>
-  <si>
-    <t>28449</t>
-  </si>
-  <si>
-    <t>25465</t>
-  </si>
-  <si>
-    <t>25598</t>
-  </si>
-  <si>
-    <t>26296</t>
-  </si>
-  <si>
-    <t>22545</t>
-  </si>
-  <si>
-    <t>24802</t>
-  </si>
-  <si>
-    <t>27709</t>
-  </si>
-  <si>
-    <t>26635</t>
-  </si>
-  <si>
-    <t>22983</t>
-  </si>
-  <si>
-    <t>20538</t>
-  </si>
-  <si>
-    <t>20160</t>
-  </si>
-  <si>
-    <t>18546</t>
-  </si>
-  <si>
-    <t>13770</t>
-  </si>
-  <si>
-    <t>13480</t>
-  </si>
-  <si>
-    <t>12682</t>
-  </si>
-  <si>
-    <t>13220</t>
-  </si>
-  <si>
-    <t>13960.8487337</t>
-  </si>
-  <si>
-    <t>13446.6021924</t>
-  </si>
-  <si>
-    <t>13056.4900865</t>
-  </si>
-  <si>
-    <t>12288.3710283</t>
-  </si>
-  <si>
-    <t>12425.2839366</t>
-  </si>
-  <si>
-    <t>12495.0040277</t>
-  </si>
-  <si>
-    <t>12445.3373237</t>
-  </si>
-  <si>
-    <t>12787.8878358</t>
-  </si>
-  <si>
-    <t>12212.3581163</t>
-  </si>
-  <si>
-    <t>12017.1428758</t>
-  </si>
-  <si>
-    <t>12814.3043519</t>
-  </si>
-  <si>
-    <t>12403.8342884</t>
-  </si>
-  <si>
-    <t>11721.3035047</t>
-  </si>
-  <si>
-    <t>13008.0419112</t>
-  </si>
-  <si>
-    <t>13681.1499635</t>
-  </si>
-  <si>
-    <t>14208.0507023</t>
-  </si>
-  <si>
-    <t>14814.7335504</t>
-  </si>
-  <si>
-    <t>15152.4861555</t>
-  </si>
-  <si>
-    <t>15346.4988964</t>
-  </si>
-  <si>
-    <t>14070.6847362</t>
-  </si>
-  <si>
-    <t>13746.2612474</t>
+    <t>25182</t>
+  </si>
+  <si>
+    <t>26634</t>
+  </si>
+  <si>
+    <t>27490</t>
+  </si>
+  <si>
+    <t>29358</t>
+  </si>
+  <si>
+    <t>31695</t>
+  </si>
+  <si>
+    <t>31374</t>
+  </si>
+  <si>
+    <t>32481</t>
+  </si>
+  <si>
+    <t>32329</t>
+  </si>
+  <si>
+    <t>32473</t>
+  </si>
+  <si>
+    <t>34153</t>
+  </si>
+  <si>
+    <t>35758</t>
+  </si>
+  <si>
+    <t>36949</t>
+  </si>
+  <si>
+    <t>38654</t>
+  </si>
+  <si>
+    <t>39889</t>
+  </si>
+  <si>
+    <t>40927</t>
+  </si>
+  <si>
+    <t>41705</t>
+  </si>
+  <si>
+    <t>42213</t>
+  </si>
+  <si>
+    <t>42416</t>
+  </si>
+  <si>
+    <t>42040</t>
+  </si>
+  <si>
+    <t>40639</t>
+  </si>
+  <si>
+    <t>39135</t>
+  </si>
+  <si>
+    <t>39540</t>
+  </si>
+  <si>
+    <t>39669</t>
+  </si>
+  <si>
+    <t>45347</t>
+  </si>
+  <si>
+    <t>40591</t>
+  </si>
+  <si>
+    <t>40803</t>
+  </si>
+  <si>
+    <t>41915</t>
+  </si>
+  <si>
+    <t>35936</t>
+  </si>
+  <si>
+    <t>39534</t>
+  </si>
+  <si>
+    <t>44168</t>
+  </si>
+  <si>
+    <t>42456</t>
+  </si>
+  <si>
+    <t>36635</t>
+  </si>
+  <si>
+    <t>32737</t>
+  </si>
+  <si>
+    <t>32135</t>
+  </si>
+  <si>
+    <t>29562</t>
+  </si>
+  <si>
+    <t>21949</t>
+  </si>
+  <si>
+    <t>21487</t>
+  </si>
+  <si>
+    <t>20215</t>
+  </si>
+  <si>
+    <t>21072</t>
+  </si>
+  <si>
+    <t>22254</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>25558.756425032</t>
+  </si>
+  <si>
+    <t>28334.5820209101</t>
+  </si>
+  <si>
+    <t>31239.9171004324</t>
+  </si>
+  <si>
+    <t>34042.7412728547</t>
+  </si>
+  <si>
+    <t>38168.4666465487</t>
+  </si>
+  <si>
+    <t>39667.7947864206</t>
+  </si>
+  <si>
+    <t>42372.4392625826</t>
+  </si>
+  <si>
+    <t>48888.0321474603</t>
+  </si>
+  <si>
+    <t>51263.3765676032</t>
+  </si>
+  <si>
+    <t>54077.4668569886</t>
+  </si>
+  <si>
+    <t>59823.2672586407</t>
+  </si>
+  <si>
+    <t>64925.6714203607</t>
+  </si>
+  <si>
+    <t>65599.0579137263</t>
+  </si>
+  <si>
+    <t>67830.9261711711</t>
+  </si>
+  <si>
+    <t>65412.8010247111</t>
+  </si>
+  <si>
+    <t>63862.0848407714</t>
+  </si>
+  <si>
+    <t>58860.5359332809</t>
+  </si>
+  <si>
+    <t>60112.4019297104</t>
+  </si>
+  <si>
+    <t>65307</t>
+  </si>
+  <si>
+    <t>68255</t>
+  </si>
+  <si>
+    <t>70791</t>
+  </si>
+  <si>
+    <t>72601</t>
+  </si>
+  <si>
+    <t>74746</t>
+  </si>
+  <si>
+    <t>75876</t>
   </si>
   <si>
     <t>Description</t>
@@ -1045,7 +1060,7 @@
         <v>1992.0</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45">
@@ -1062,7 +1077,7 @@
         <v>1993.0</v>
       </c>
       <c r="E45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46">
@@ -1079,7 +1094,7 @@
         <v>1994.0</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47">
@@ -1096,7 +1111,7 @@
         <v>1995.0</v>
       </c>
       <c r="E47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48">
@@ -1113,7 +1128,7 @@
         <v>1996.0</v>
       </c>
       <c r="E48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49">
@@ -1130,7 +1145,7 @@
         <v>1997.0</v>
       </c>
       <c r="E49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50">
@@ -1147,7 +1162,7 @@
         <v>1998.0</v>
       </c>
       <c r="E50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51">
@@ -1164,7 +1179,7 @@
         <v>1999.0</v>
       </c>
       <c r="E51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52">
@@ -1181,7 +1196,7 @@
         <v>2000.0</v>
       </c>
       <c r="E52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53">
@@ -1198,7 +1213,7 @@
         <v>2001.0</v>
       </c>
       <c r="E53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54">
@@ -1215,7 +1230,7 @@
         <v>2002.0</v>
       </c>
       <c r="E54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55">
@@ -1232,7 +1247,7 @@
         <v>2003.0</v>
       </c>
       <c r="E55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56">
@@ -1249,7 +1264,7 @@
         <v>2004.0</v>
       </c>
       <c r="E56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57">
@@ -1266,7 +1281,7 @@
         <v>2005.0</v>
       </c>
       <c r="E57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58">
@@ -1283,7 +1298,7 @@
         <v>2006.0</v>
       </c>
       <c r="E58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59">
@@ -1300,7 +1315,7 @@
         <v>2007.0</v>
       </c>
       <c r="E59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60">
@@ -1317,7 +1332,7 @@
         <v>2008.0</v>
       </c>
       <c r="E60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61">
@@ -1334,7 +1349,7 @@
         <v>2009.0</v>
       </c>
       <c r="E61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62">
@@ -1351,7 +1366,109 @@
         <v>2010.0</v>
       </c>
       <c r="E62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>784.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>784.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>784.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>784.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>784.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>784.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1369,50 +1486,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
